--- a/Projeção.xlsx
+++ b/Projeção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Workspace\Aulas-DigitalInnovation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BE6A6E-23C5-4174-9E73-BDF5E6079DB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD35E79-6F4A-44AB-A134-CBE809B98792}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{871DED4E-E967-4BDC-B638-C4411BCA5873}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Fundamentos para criação</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>JOÃO</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -340,32 +343,32 @@
     <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -688,7 +691,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,11 +712,11 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44284</v>
+        <v>44285</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="16">
+      <c r="B2" s="12">
         <v>44284</v>
       </c>
       <c r="C2" s="2">
@@ -745,7 +748,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -775,7 +778,7 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
@@ -803,48 +806,48 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -867,10 +870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D1B8EE-10B6-4D10-99E8-9A22533F8510}">
-  <dimension ref="B1:I12"/>
+  <dimension ref="B1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,44 +885,59 @@
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="20"/>
+      <c r="E1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="14"/>
+      <c r="F1" s="19"/>
       <c r="H1" s="5">
-        <f>C8-F12</f>
-        <v>485.5</v>
+        <f>F13-C8</f>
+        <v>5391</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L1">
+        <v>4200</v>
+      </c>
+      <c r="M1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="7">
-        <v>2332</v>
+        <v>591</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="7">
-        <f>803.5+670+277</f>
-        <v>1750.5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+      <c r="N2">
+        <f>(L1*M2)/M1</f>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="7">
-        <v>1017</v>
+        <v>0</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>26</v>
@@ -928,7 +946,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
@@ -943,7 +961,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
@@ -957,7 +975,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
@@ -972,12 +990,12 @@
         <v>479</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>874</v>
+        <v>0</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>26</v>
@@ -987,11 +1005,11 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
       <c r="C8" s="11">
         <f>SUM(C2:C7)</f>
-        <v>12501</v>
+        <v>8869</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>27</v>
@@ -1000,7 +1018,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E9" s="6" t="s">
         <v>30</v>
       </c>
@@ -1008,7 +1026,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E10" s="6" t="s">
         <v>31</v>
       </c>
@@ -1017,7 +1035,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E11" s="6" t="s">
         <v>25</v>
       </c>
@@ -1026,11 +1044,19 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E12" s="8"/>
-      <c r="F12" s="9">
-        <f>SUM(F2:F11)</f>
-        <v>12015.5</v>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="7">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E13" s="8"/>
+      <c r="F13" s="9">
+        <f>SUM(F2:F12)</f>
+        <v>14260</v>
       </c>
     </row>
   </sheetData>

--- a/Projeção.xlsx
+++ b/Projeção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Workspace\Aulas-DigitalInnovation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD35E79-6F4A-44AB-A134-CBE809B98792}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E638F6-BD62-43E9-B526-AED827D0ADE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{871DED4E-E967-4BDC-B638-C4411BCA5873}"/>
   </bookViews>
@@ -691,7 +691,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,14 +712,14 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44285</v>
+        <v>44286</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>44284</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="12">
         <v>44285</v>
       </c>
       <c r="D2" s="2">
@@ -751,7 +751,7 @@
       <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -779,7 +779,7 @@
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -809,7 +809,7 @@
       <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -839,7 +839,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
-      <c r="C6" s="16"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>

--- a/Projeção.xlsx
+++ b/Projeção.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Workspace\Aulas-DigitalInnovation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E638F6-BD62-43E9-B526-AED827D0ADE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77559DFC-AC0E-4E6C-A16E-3029446BCCF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{871DED4E-E967-4BDC-B638-C4411BCA5873}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="ABRIL GASTOS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" iterateCount="1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -312,13 +312,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -688,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6DBE87-CA4D-4BD3-A151-EE38A8F1CB33}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G3" sqref="G3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,8 +700,7 @@
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="6" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.140625" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" customWidth="1"/>
@@ -716,13 +714,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>44284</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>44285</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="11">
         <v>44286</v>
       </c>
       <c r="E2" s="2">
@@ -748,106 +746,109 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="F9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -886,19 +887,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="19"/>
+      <c r="E1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="H1" s="5">
+      <c r="F1" s="18"/>
+      <c r="H1" s="4">
         <f>F13-C8</f>
         <v>5391</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L1">
@@ -909,16 +910,16 @@
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>591</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>750</v>
       </c>
       <c r="L2" t="s">
@@ -933,128 +934,128 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>0</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>1635</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>3257</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f>175+238</f>
         <v>413</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>887</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>550</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>4134</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f>190+139+79+71</f>
         <v>479</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>0</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f>392+287+878</f>
         <v>1557</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10">
         <f>SUM(C2:C7)</f>
         <v>8869</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>238</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>1400</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f>1590+153+99</f>
         <v>1842</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <f>500+589+428+634</f>
         <v>2151</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>3245</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="8"/>
-      <c r="F13" s="9">
+      <c r="E13" s="7"/>
+      <c r="F13" s="8">
         <f>SUM(F2:F12)</f>
         <v>14260</v>
       </c>

--- a/Projeção.xlsx
+++ b/Projeção.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Workspace\Aulas-DigitalInnovation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77559DFC-AC0E-4E6C-A16E-3029446BCCF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9221F013-2ECC-409F-8E0B-9066AE08A913}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{871DED4E-E967-4BDC-B638-C4411BCA5873}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="15375" windowHeight="7995" activeTab="1" xr2:uid="{871DED4E-E967-4BDC-B638-C4411BCA5873}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Fundamentos para criação</t>
   </si>
@@ -128,6 +128,24 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>9h</t>
+  </si>
+  <si>
+    <t>Instrodução a orquestatração</t>
+  </si>
+  <si>
+    <t>Construindo um projeto</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>Priscilla</t>
+  </si>
+  <si>
+    <t>TTL</t>
   </si>
 </sst>
 </file>
@@ -312,7 +330,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -339,9 +357,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -366,7 +381,17 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -689,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6DBE87-CA4D-4BD3-A151-EE38A8F1CB33}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:J4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H5:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,9 +725,10 @@
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
@@ -710,23 +736,23 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="10">
+        <v>44284</v>
+      </c>
+      <c r="C2" s="10">
+        <v>44285</v>
+      </c>
+      <c r="D2" s="10">
         <v>44286</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="11">
-        <v>44284</v>
-      </c>
-      <c r="C2" s="11">
-        <v>44285</v>
-      </c>
-      <c r="D2" s="11">
-        <v>44286</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="E2" s="10">
         <v>44287</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="10">
         <v>44288</v>
       </c>
       <c r="G2" s="2">
@@ -745,20 +771,20 @@
         <v>44295</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -773,18 +799,20 @@
       <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -799,56 +827,56 @@
       <c r="J4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="14" t="s">
-        <v>16</v>
+      <c r="K5" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="F9" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F9" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -871,9 +899,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D1B8EE-10B6-4D10-99E8-9A22533F8510}">
-  <dimension ref="B1:N13"/>
+  <dimension ref="B1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -881,188 +909,257 @@
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B1" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="19"/>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="H1" s="4">
-        <f>F13-C8</f>
-        <v>5391</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="17"/>
+      <c r="J1" s="4">
+        <f>H13-C8</f>
+        <v>548</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L1">
+      <c r="N1">
         <v>4200</v>
       </c>
-      <c r="M1">
+      <c r="O1">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="6">
-        <v>591</v>
-      </c>
-      <c r="E2" s="5" t="s">
+        <f>591+1340</f>
+        <v>1931</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="6">
-        <v>750</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>20</v>
       </c>
-      <c r="N2">
-        <f>(L1*M2)/M1</f>
+      <c r="P2">
+        <f>(N1*O2)/O1</f>
         <v>2800</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="6">
+      <c r="H3" s="6">
         <v>1635</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="6">
-        <v>3257</v>
-      </c>
-      <c r="E4" s="5" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D4" s="22">
+        <f>150+393+152+99+50+352+68+238</f>
+        <v>1502</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21">
+        <f>(C4-D4-E4)/2</f>
+        <v>1006.5</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="6">
-        <f>175+238</f>
-        <v>413</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="6">
-        <v>887</v>
-      </c>
-      <c r="E5" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D5" s="22">
+        <f>233+80</f>
+        <v>313</v>
+      </c>
+      <c r="E5" s="22">
+        <f>104+100+100+12+69</f>
+        <v>385</v>
+      </c>
+      <c r="F5" s="21">
+        <f>(C5-D5-E5)/2</f>
+        <v>162.5</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="6">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="6">
         <v>4134</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="22">
+        <f>1590+70+79+877+138+190</f>
+        <v>2944</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
+        <f>(C6-D6-E6)/2</f>
+        <v>595</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="6">
+      <c r="H6" s="6">
         <f>190+139+79+71</f>
         <v>479</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="22">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22">
+        <v>500</v>
+      </c>
+      <c r="F7" s="21">
+        <f>(156+174)/2</f>
+        <v>165</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="6">
+      <c r="H7" s="6">
         <f>392+287+878</f>
         <v>1557</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="10">
+      <c r="C8" s="20">
         <f>SUM(C2:C7)</f>
-        <v>8869</v>
-      </c>
-      <c r="E8" s="5" t="s">
+        <v>10890</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="6">
+      <c r="H8" s="6">
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E9" s="5" t="s">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="6">
+      <c r="H9" s="6">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E10" s="5" t="s">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="6">
+      <c r="H10" s="6">
         <f>1590+153+99</f>
         <v>1842</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E11" s="5" t="s">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="6">
-        <f>500+589+428+634</f>
-        <v>2151</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E12" s="5" t="s">
+      <c r="H11" s="6">
+        <f>F4+F5+F6+F7+E7</f>
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="6">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="7"/>
-      <c r="F13" s="8">
-        <f>SUM(F2:F12)</f>
-        <v>14260</v>
+      <c r="H12" s="6">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G13" s="7"/>
+      <c r="H13" s="8">
+        <f>SUM(H2:H12)</f>
+        <v>11438</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Projeção.xlsx
+++ b/Projeção.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Workspace\Aulas-DigitalInnovation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9221F013-2ECC-409F-8E0B-9066AE08A913}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE17B848-EA95-488D-BFC6-6C6B60F6EB4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="15375" windowHeight="7995" activeTab="1" xr2:uid="{871DED4E-E967-4BDC-B638-C4411BCA5873}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{871DED4E-E967-4BDC-B638-C4411BCA5873}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Fundamentos para criação</t>
   </si>
@@ -94,58 +94,70 @@
     <t>NUBANK</t>
   </si>
   <si>
+    <t>SAIDAS</t>
+  </si>
+  <si>
+    <t>ENTRADAS</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>RONAN</t>
+  </si>
+  <si>
+    <t>BATATA</t>
+  </si>
+  <si>
+    <t>MÃE</t>
+  </si>
+  <si>
+    <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>BDC</t>
+  </si>
+  <si>
+    <t>JOÃO</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>9h</t>
+  </si>
+  <si>
+    <t>Instrodução a orquestatração</t>
+  </si>
+  <si>
+    <t>Construindo um projeto</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>Priscilla</t>
+  </si>
+  <si>
+    <t>TTL</t>
+  </si>
+  <si>
+    <t>VIDRO</t>
+  </si>
+  <si>
+    <t>IPVA</t>
+  </si>
+  <si>
+    <t>DUDAS</t>
+  </si>
+  <si>
+    <t>SALARIO</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>CARRO</t>
-  </si>
-  <si>
-    <t>SAIDAS</t>
-  </si>
-  <si>
-    <t>ENTRADAS</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
-    <t>RONAN</t>
-  </si>
-  <si>
-    <t>BATATA</t>
-  </si>
-  <si>
-    <t>DOUGLAS</t>
-  </si>
-  <si>
-    <t>MÃE</t>
-  </si>
-  <si>
-    <t>GABRIELA</t>
-  </si>
-  <si>
-    <t>BDC</t>
-  </si>
-  <si>
-    <t>JOÃO</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>9h</t>
-  </si>
-  <si>
-    <t>Instrodução a orquestatração</t>
-  </si>
-  <si>
-    <t>Construindo um projeto</t>
-  </si>
-  <si>
-    <t>João</t>
-  </si>
-  <si>
-    <t>Priscilla</t>
-  </si>
-  <si>
-    <t>TTL</t>
   </si>
 </sst>
 </file>
@@ -330,7 +342,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -366,6 +378,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -381,17 +410,13 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -736,7 +761,7 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44291</v>
+        <v>44293</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -800,7 +825,7 @@
         <v>15</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -828,52 +853,52 @@
         <v>17</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="13" t="s">
-        <v>34</v>
+      <c r="K5" s="20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9" s="3"/>
@@ -899,10 +924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D1B8EE-10B6-4D10-99E8-9A22533F8510}">
-  <dimension ref="B1:P13"/>
+  <dimension ref="B1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,32 +944,33 @@
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="17"/>
+      <c r="H1" s="24"/>
       <c r="J1" s="4">
         <f>H13-C8</f>
-        <v>548</v>
+        <v>1621.5</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N1">
         <v>4200</v>
@@ -958,20 +984,20 @@
         <v>18</v>
       </c>
       <c r="C2" s="6">
-        <f>591+1340</f>
-        <v>1931</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="21"/>
+        <f>591</f>
+        <v>591</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="5" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O2">
         <v>20</v>
@@ -988,14 +1014,14 @@
       <c r="C3" s="6">
         <v>287</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="21"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="5" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="H3" s="6">
-        <v>1635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
@@ -1003,21 +1029,21 @@
         <v>20</v>
       </c>
       <c r="C4" s="6">
-        <v>3515</v>
-      </c>
-      <c r="D4" s="22">
+        <v>3601</v>
+      </c>
+      <c r="D4" s="16">
         <f>150+393+152+99+50+352+68+238</f>
         <v>1502</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="16">
         <v>0</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="15">
         <f>(C4-D4-E4)/2</f>
-        <v>1006.5</v>
+        <v>1049.5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H4" s="6">
         <v>0</v>
@@ -1028,25 +1054,25 @@
         <v>19</v>
       </c>
       <c r="C5" s="6">
-        <v>1023</v>
-      </c>
-      <c r="D5" s="22">
+        <v>1154</v>
+      </c>
+      <c r="D5" s="16">
         <f>233+80</f>
         <v>313</v>
       </c>
-      <c r="E5" s="22">
-        <f>104+100+100+12+69</f>
-        <v>385</v>
-      </c>
-      <c r="F5" s="21">
+      <c r="E5" s="16">
+        <f>104+100+100+12+69+83</f>
+        <v>468</v>
+      </c>
+      <c r="F5" s="15">
         <f>(C5-D5-E5)/2</f>
-        <v>162.5</v>
+        <v>186.5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H5" s="6">
-        <v>0</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -1054,21 +1080,21 @@
         <v>21</v>
       </c>
       <c r="C6" s="6">
-        <v>4134</v>
-      </c>
-      <c r="D6" s="22">
+        <v>4589</v>
+      </c>
+      <c r="D6" s="16">
         <f>1590+70+79+877+138+190</f>
         <v>2944</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="16">
         <v>0</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="15">
         <f>(C6-D6-E6)/2</f>
-        <v>595</v>
+        <v>822.5</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H6" s="6">
         <f>190+139+79+71</f>
@@ -1077,23 +1103,23 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="16">
         <v>0</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="16">
         <v>500</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="15">
         <f>(156+174)/2</f>
         <v>165</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="6">
         <f>392+287+878</f>
@@ -1102,15 +1128,15 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="20">
+      <c r="C8" s="14">
         <f>SUM(C2:C7)</f>
-        <v>10890</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+        <v>10222</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="6">
         <v>238</v>
@@ -1118,15 +1144,19 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G9" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="6">
         <v>1400</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="26">
+        <v>44306</v>
+      </c>
+      <c r="C10" s="27"/>
       <c r="G10" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H10" s="6">
         <f>1590+153+99</f>
@@ -1134,33 +1164,145 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="18">
+        <f>F4</f>
+        <v>1049.5</v>
+      </c>
       <c r="G11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="6">
         <f>F4+F5+F6+F7+E7</f>
-        <v>2429</v>
+        <v>2723.5</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="18">
+        <f>E5+F5</f>
+        <v>654.5</v>
+      </c>
       <c r="G12" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="6">
-        <v>1858</v>
+        <f>2369-400</f>
+        <v>1969</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="18">
+        <f>F6</f>
+        <v>822.5</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="8">
         <f>SUM(H2:H12)</f>
-        <v>11438</v>
+        <v>11843.5</v>
+      </c>
+      <c r="M13">
+        <f>150+160+200</f>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="18">
+        <f>E7</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="18">
+        <f>F7</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="14">
+        <f>SUM(C11:C15)</f>
+        <v>3191.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="26">
+        <v>44317</v>
+      </c>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="18">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="18">
+        <v>200.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="18">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="18">
+        <f>E16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="18">
+        <f>F16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="14">
+        <f>SUM(C20:C24)</f>
+        <v>1894.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Projeção.xlsx
+++ b/Projeção.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Workspace\Aulas-DigitalInnovation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE17B848-EA95-488D-BFC6-6C6B60F6EB4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305EE7CC-68DE-4E62-B6CA-3EB5136960DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{871DED4E-E967-4BDC-B638-C4411BCA5873}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Fundamentos para criação</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>TTL</t>
-  </si>
-  <si>
-    <t>VIDRO</t>
   </si>
   <si>
     <t>IPVA</t>
@@ -342,7 +339,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -392,6 +389,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -761,7 +761,7 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44293</v>
+        <v>44301</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -857,48 +857,48 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9" s="3"/>
@@ -924,10 +924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D1B8EE-10B6-4D10-99E8-9A22533F8510}">
-  <dimension ref="B1:P25"/>
+  <dimension ref="B1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,21 +937,22 @@
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="25"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="5" t="s">
         <v>35</v>
       </c>
@@ -961,76 +962,78 @@
       <c r="F1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="J1" s="4">
-        <f>H13-C8</f>
-        <v>1621.5</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="I1" s="25"/>
+      <c r="K1" s="4">
+        <f>I13-C8</f>
+        <v>3580.5</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>4200</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="6">
-        <f>591</f>
-        <v>591</v>
+        <f>591+1257</f>
+        <v>1848</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="15"/>
-      <c r="G2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="G2" s="15"/>
+      <c r="H2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="6">
         <v>0</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>31</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>20</v>
       </c>
-      <c r="P2">
-        <f>(N1*O2)/O1</f>
+      <c r="Q2">
+        <f>(O1*P2)/P1</f>
         <v>2800</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="6">
-        <v>287</v>
+        <f>287+200.5</f>
+        <v>487.5</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="G3" s="15"/>
+      <c r="H3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6">
-        <v>3601</v>
-      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="16">
         <f>150+393+152+99+50+352+68+238</f>
         <v>1502</v>
@@ -1040,42 +1043,47 @@
       </c>
       <c r="F4" s="15">
         <f>(C4-D4-E4)/2</f>
-        <v>1049.5</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+        <v>-751</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1061.5</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6">
-        <v>1154</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="16">
         <f>233+80</f>
         <v>313</v>
       </c>
       <c r="E5" s="16">
-        <f>104+100+100+12+69+83</f>
-        <v>468</v>
+        <f>104+100+100+12+69+83+25</f>
+        <v>493</v>
       </c>
       <c r="F5" s="15">
         <f>(C5-D5-E5)/2</f>
-        <v>186.5</v>
-      </c>
-      <c r="G5" s="5" t="s">
+        <v>-403</v>
+      </c>
+      <c r="G5" s="15">
+        <f>237+E5</f>
+        <v>730</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>1635</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
@@ -1083,30 +1091,32 @@
         <v>4589</v>
       </c>
       <c r="D6" s="16">
-        <f>1590+70+79+877+138+190</f>
-        <v>2944</v>
+        <f>1590+70+79+877+138+190+350</f>
+        <v>3294</v>
       </c>
       <c r="E6" s="16">
         <v>0</v>
       </c>
       <c r="F6" s="15">
         <f>(C6-D6-E6)/2</f>
-        <v>822.5</v>
-      </c>
-      <c r="G6" s="5" t="s">
+        <v>647.5</v>
+      </c>
+      <c r="G6" s="15">
+        <v>647.5</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="6">
-        <f>190+139+79+71</f>
-        <v>479</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C7" s="6">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D7" s="16">
         <v>0</v>
@@ -1118,140 +1128,143 @@
         <f>(156+174)/2</f>
         <v>165</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="15">
+        <v>165</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <f>392+287+878</f>
         <v>1557</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="14">
         <f>SUM(C2:C7)</f>
-        <v>10222</v>
+        <v>7129.5</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G9" s="5" t="s">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="26">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="27">
         <v>44306</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="G10" s="5" t="s">
+      <c r="C10" s="28"/>
+      <c r="H10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="6">
-        <f>1590+153+99</f>
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="18">
         <f>F4</f>
-        <v>1049.5</v>
-      </c>
-      <c r="G11" s="5" t="s">
+        <v>-751</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="6">
-        <f>F4+F5+F6+F7+E7</f>
-        <v>2723.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I11" s="6">
+        <f>SUM(G4:G7,E7)</f>
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="18">
         <f>E5+F5</f>
-        <v>654.5</v>
-      </c>
-      <c r="G12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="6">
-        <f>2369-400</f>
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I12" s="6">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="18">
         <f>F6</f>
-        <v>822.5</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8">
-        <f>SUM(H2:H12)</f>
-        <v>11843.5</v>
-      </c>
-      <c r="M13">
+        <v>647.5</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <f>SUM(I2:I12)</f>
+        <v>10710</v>
+      </c>
+      <c r="N13">
         <f>150+160+200</f>
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="18">
         <f>E7</f>
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="18">
         <f>F7</f>
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="14">
         <f>SUM(C11:C15)</f>
-        <v>3191.5</v>
+        <v>651.5</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="26">
+      <c r="B19" s="27">
         <v>44317</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="18">
-        <v>1024</v>
+        <f>(3105-591)/2</f>
+        <v>1257</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -1264,7 +1277,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="18">
         <v>670</v>
@@ -1272,7 +1285,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="18">
         <f>E16</f>
@@ -1281,7 +1294,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="18">
         <f>F16</f>
@@ -1294,12 +1307,12 @@
       </c>
       <c r="C25" s="14">
         <f>SUM(C20:C24)</f>
-        <v>1894.5</v>
+        <v>2127.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B19:C19"/>
